--- a/dbInittool/excels/MealStatus.xlsx
+++ b/dbInittool/excels/MealStatus.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cs20502\Desktop\TF\Hackathon\Reader\excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cs20502\Desktop\TF\Hackathon\PickNic\dbInittool\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8057015F-04F1-4D83-A825-50DCA1D239CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4863A417-E4EE-4112-AB43-9C4971ED7475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="720" windowWidth="16200" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-6555" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -355,10 +355,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -379,6 +379,14 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dbInittool/excels/MealStatus.xlsx
+++ b/dbInittool/excels/MealStatus.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cs20502\Desktop\TF\Hackathon\PickNic\dbInittool\excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nokita\chasaji\PickNic\dbInittool\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4863A417-E4EE-4112-AB43-9C4971ED7475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF5D76F-81A5-470A-BD43-2DA694ACAFEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-6555" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10710" yWindow="0" windowWidth="10980" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -355,10 +355,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -387,6 +387,14 @@
         <v>1</v>
       </c>
     </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dbInittool/excels/MealStatus.xlsx
+++ b/dbInittool/excels/MealStatus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nokita\chasaji\PickNic\dbInittool\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF5D76F-81A5-470A-BD43-2DA694ACAFEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F8F7806-7C38-496C-A160-C7B29197CA22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10710" yWindow="0" windowWidth="10980" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -355,10 +355,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -376,22 +376,102 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
         <v>0</v>
       </c>
     </row>

--- a/dbInittool/excels/MealStatus.xlsx
+++ b/dbInittool/excels/MealStatus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nokita\chasaji\PickNic\dbInittool\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F8F7806-7C38-496C-A160-C7B29197CA22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0024E8-ECDD-4362-B82D-20FA7C6E671A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10710" yWindow="0" windowWidth="10980" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="10980" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -355,10 +355,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -376,7 +376,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -440,7 +440,7 @@
         <v>1</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -472,6 +472,30 @@
         <v>0</v>
       </c>
       <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
         <v>0</v>
       </c>
     </row>

--- a/dbInittool/excels/MealStatus.xlsx
+++ b/dbInittool/excels/MealStatus.xlsx
@@ -27,7 +27,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -38,6 +38,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -71,10 +77,10 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -400,15 +406,15 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="23.25">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="23.25">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -416,7 +422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="23.25">
       <c r="A4" s="2">
         <v>0</v>
       </c>
@@ -424,15 +430,15 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="23.25">
       <c r="A5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="23.25">
       <c r="A6" s="2">
         <v>0</v>
       </c>
@@ -440,7 +446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="23.25">
       <c r="A7" s="2">
         <v>0</v>
       </c>
@@ -448,7 +454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="23.25">
       <c r="A8" s="2">
         <v>0</v>
       </c>
@@ -456,7 +462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="23.25">
       <c r="A9" s="2">
         <v>0</v>
       </c>
@@ -464,51 +470,51 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="23.25">
       <c r="A10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B10" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="23.25">
       <c r="A11" s="2">
         <v>1</v>
       </c>
       <c r="B11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="23.25">
+      <c r="A12" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
-      <c r="A12" s="2">
-        <v>0</v>
-      </c>
       <c r="B12" s="2">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="23.25">
       <c r="A13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B13" s="2">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="23.25">
       <c r="A14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B14" s="2">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="23.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="23.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
     </row>

--- a/dbInittool/excels/MealStatus.xlsx
+++ b/dbInittool/excels/MealStatus.xlsx
@@ -27,19 +27,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -75,12 +69,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -394,11 +385,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="23.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -407,120 +398,120 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="23.25">
-      <c r="A2" s="2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="23.25">
-      <c r="A3" s="2">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="23.25">
-      <c r="A4" s="2">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="23.25">
-      <c r="A5" s="2">
-        <v>0</v>
-      </c>
-      <c r="B5" s="2">
+      <c r="A5" s="1">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="23.25">
-      <c r="A6" s="2">
-        <v>0</v>
-      </c>
-      <c r="B6" s="2">
+      <c r="A6" s="1">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="23.25">
-      <c r="A7" s="2">
-        <v>0</v>
-      </c>
-      <c r="B7" s="2">
+      <c r="A7" s="1">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="23.25">
-      <c r="A8" s="2">
-        <v>0</v>
-      </c>
-      <c r="B8" s="2">
+      <c r="A8" s="1">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="23.25">
-      <c r="A9" s="2">
-        <v>0</v>
-      </c>
-      <c r="B9" s="2">
+      <c r="A9" s="1">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="23.25">
-      <c r="A10" s="2">
-        <v>0</v>
-      </c>
-      <c r="B10" s="2">
+      <c r="A10" s="1">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="23.25">
-      <c r="A11" s="2">
-        <v>1</v>
-      </c>
-      <c r="B11" s="2">
+      <c r="A11" s="1">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="23.25">
-      <c r="A12" s="2">
-        <v>1</v>
-      </c>
-      <c r="B12" s="2">
+      <c r="A12" s="1">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="23.25">
-      <c r="A13" s="2">
-        <v>1</v>
-      </c>
-      <c r="B13" s="2">
+      <c r="A13" s="1">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="23.25">
-      <c r="A14" s="2">
-        <v>1</v>
-      </c>
-      <c r="B14" s="2">
+      <c r="A14" s="1">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="23.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="23.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
